--- a/static/data/작업일지_2025-1-01.xlsx
+++ b/static/data/작업일지_2025-1-01.xlsx
@@ -2004,7 +2004,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
@@ -2071,15 +2071,23 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
           <t>형틀</t>
         </is>
       </c>
-      <c r="C56" s="2" t="n"/>
-      <c r="D56" s="2" t="n"/>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>김민수</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
           <t>C</t>
@@ -2131,8 +2139,16 @@
           <t>형틀</t>
         </is>
       </c>
-      <c r="C57" s="2" t="n"/>
-      <c r="D57" s="2" t="n"/>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>노하람</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
       <c r="G57" s="2" t="n"/>
@@ -3444,7 +3460,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
@@ -3511,15 +3527,23 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
           <t>형틀</t>
         </is>
       </c>
-      <c r="C106" s="2" t="n"/>
-      <c r="D106" s="2" t="n"/>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>김민수</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
           <t>C</t>
@@ -3571,8 +3595,16 @@
           <t>형틀</t>
         </is>
       </c>
-      <c r="C107" s="2" t="n"/>
-      <c r="D107" s="2" t="n"/>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>노하람</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="E107" s="2" t="n"/>
       <c r="F107" s="2" t="n"/>
       <c r="G107" s="2" t="n"/>
